--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1502.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1502.xlsx
@@ -354,7 +354,7 @@
         <v>2.598167962088055</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.283633520018096</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1502.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1502.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.558422672593134</v>
+        <v>1.215974926948547</v>
       </c>
       <c r="B1">
-        <v>2.598167962088055</v>
+        <v>1.902090549468994</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.581146240234375</v>
       </c>
       <c r="D1">
-        <v>1.283633520018096</v>
+        <v>1.138916254043579</v>
       </c>
       <c r="E1">
-        <v>0.66741386512136</v>
+        <v>0.5990338921546936</v>
       </c>
     </row>
   </sheetData>
